--- a/data/setup/會計科目表.xlsx
+++ b/data/setup/會計科目表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Capstone\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.tu\Desktop\Capstone\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971B6A9-EC14-467D-8A40-2AABA65D30C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E34896-5A0E-4FD7-AC4F-B5AAF0828419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="會計科目表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>NetIncomeLoss</t>
   </si>
@@ -277,6 +277,17 @@
   </si>
   <si>
     <t>折舊費用加上攤銷費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech Mahindra Limited</t>
+  </si>
+  <si>
+    <t>InterestExpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPAM Systems, Inc.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +321,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -339,13 +356,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -628,22 +646,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -683,6 +704,12 @@
       <c r="L1" t="s">
         <v>35</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
@@ -710,7 +737,9 @@
         <v>44</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
@@ -730,6 +759,9 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -747,6 +779,9 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -785,6 +820,12 @@
       <c r="L5" t="s">
         <v>29</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -823,6 +864,12 @@
       <c r="L6" t="s">
         <v>36</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -861,13 +908,19 @@
       <c r="L7" t="s">
         <v>48</v>
       </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -897,6 +950,12 @@
         <v>45</v>
       </c>
       <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -937,6 +996,12 @@
       <c r="L9" t="s">
         <v>37</v>
       </c>
+      <c r="M9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -975,6 +1040,12 @@
       <c r="L10" t="s">
         <v>46</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -1013,6 +1084,12 @@
       <c r="L11" t="s">
         <v>47</v>
       </c>
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -1065,6 +1142,12 @@
       <c r="L13" t="s">
         <v>38</v>
       </c>
+      <c r="M13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1103,6 +1186,12 @@
       <c r="L14" t="s">
         <v>42</v>
       </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1141,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1166,14 +1255,21 @@
       <c r="L17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
+      <c r="M18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,16 +1284,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="211.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="211.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>

--- a/data/setup/會計科目表.xlsx
+++ b/data/setup/會計科目表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.tu\Desktop\Capstone\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E34896-5A0E-4FD7-AC4F-B5AAF0828419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7F6CF-29B2-4CDB-9CF7-FF290E69F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="會計科目表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>NetIncomeLoss</t>
   </si>
@@ -288,6 +288,13 @@
   </si>
   <si>
     <t>EPAM Systems, Inc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestPaidNet</t>
+  </si>
+  <si>
+    <t>需要這個科目是有少數公司沒有揭露利息費用，例如EPAM以淨利息表達，因此採折衷方案，以利息付現數作為利息費用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +336,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -364,6 +377,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -644,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1269,7 +1285,14 @@
       <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,11 +1303,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798DA0A-0541-4BCA-B710-695D3A395383}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1437,6 +1460,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/setup/會計科目表.xlsx
+++ b/data/setup/會計科目表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.tu\Desktop\Capstone\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\capstone暫存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7F6CF-29B2-4CDB-9CF7-FF290E69F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64088492-FDEE-431E-9ED1-1FD9024B839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="會計科目表" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Wipro Limited</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>BasicEarningsLossPerShareFromContinuingOperations</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   <si>
     <t>需要這個科目是有少數公司沒有揭露利息費用，例如EPAM以淨利息表達，因此採折衷方案，以利息付現數作為利息費用</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfitLossForPeriod</t>
   </si>
 </sst>
 </file>
@@ -662,30 +662,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -697,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -721,10 +721,10 @@
         <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -735,26 +735,26 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -863,33 +863,33 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -907,28 +907,28 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -951,28 +951,28 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -995,28 +995,28 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1039,28 +1039,28 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1083,28 +1083,28 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1141,33 +1141,33 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1185,33 +1185,33 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1254,28 +1254,28 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1283,15 +1283,15 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1305,23 +1305,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798DA0A-0541-4BCA-B710-695D3A395383}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="211.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="211.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1345,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1361,15 +1361,15 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1417,23 +1417,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1441,31 +1441,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/setup/會計科目表.xlsx
+++ b/data/setup/會計科目表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\capstone暫存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Capstone\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64088492-FDEE-431E-9ED1-1FD9024B839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172379C-71B8-4C90-9660-4FC4ED92911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
   <si>
     <t>NetIncomeLoss</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>會計項目說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RACKSPACE TECHNOLOGY, INC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,14 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>權益，用來計算ROE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利息費用，用來計算EBITDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每股盈餘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,56 +241,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研發費用，有些公司將發生的研發費用認列為遞延資產，因此在這裡只考慮費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營業現金流量，表達於現金流量表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所得稅費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折舊費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攤銷費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折舊費用加上攤銷費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InterestExpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestPaidNet</t>
+  </si>
+  <si>
+    <t>需要這個科目是有少數公司沒有揭露利息費用，例如EPAM以淨利息表達，因此採折衷方案，以利息付現數作為利息費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfitLossForPeriod</t>
+  </si>
+  <si>
+    <t>InterestPaidNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產負債表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合損益表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金流量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要從內文搜尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合損益表、現金流量表、可能需要從內文搜尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研發費用，有些公司將發生的研發費用認列為遞延資產，在這裡只考慮費用，少部分公司會揭露此科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業現金流量，用於計算營業現金流動負債比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總權益，用於計算ROE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息費用，用於計算EBITDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所得稅費用，用於計算EBITDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折舊費用，用於計算EBITDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攤銷費用，用於計算EBITDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折舊費用加上攤銷費用，用於計算EBITDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPAM Systems, Inc.</t>
   </si>
   <si>
     <t>Tech Mahindra Limited</t>
-  </si>
-  <si>
-    <t>InterestExpense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPAM Systems, Inc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InterestPaidNet</t>
-  </si>
-  <si>
-    <t>需要這個科目是有少數公司沒有揭露利息費用，例如EPAM以淨利息表達，因此採折衷方案，以利息付現數作為利息費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProfitLossForPeriod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,29 +345,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -369,17 +377,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -660,14 +661,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
@@ -679,11 +680,10 @@
     <col min="8" max="10" width="24.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -697,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -720,14 +720,14 @@
       <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>72</v>
+      <c r="M1" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -752,14 +752,11 @@
       <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -775,11 +772,11 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -795,11 +792,11 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -836,14 +833,14 @@
       <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -863,31 +860,31 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -924,19 +921,19 @@
       <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -968,14 +965,14 @@
       <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1012,14 +1009,14 @@
       <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1056,14 +1053,14 @@
       <c r="L10" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1100,14 +1097,14 @@
       <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1158,14 +1155,14 @@
       <c r="L13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1202,14 +1199,14 @@
       <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
-        <v>38</v>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1271,27 +1268,27 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1303,169 +1300,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798DA0A-0541-4BCA-B710-695D3A395383}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="211.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="211.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
+      <c r="C19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
